--- a/data/trans_dic/P20-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P20-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P20-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P20-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,28%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,94%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,06%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,18%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,57%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,16%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,0%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,67%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,67%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,65%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>0,99; 4,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>1,97; 5,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>1,58; 4,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,11</t>
+          <t>0,0; 1,86</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>4,21; 8,92</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>5,9; 11,25</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>5,96; 11,71</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>3,56; 12,36</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>2,78; 5,51</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>4,27; 7,34</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>4,15; 7,3</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>1,94; 6,43</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,18%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,46%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,88%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,26%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,94%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,26%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,18%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,07%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,5%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,03%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>2,08; 4,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>3,03; 6,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>1,17; 3,96</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>1,49; 6,54</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>9,56; 14,83</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>11,32; 17,34</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>8,33; 13,53</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>5,86; 11,62</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>5,81; 8,63</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>7,6; 10,85</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>5,18; 8,04</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>4,4; 8,03</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,46%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,88%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,91%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,73%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,51%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,89%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,75%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,22%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>1,73; 4,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>3,77; 7,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>2,16; 5,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>2,31; 5,96</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>3,53; 6,87</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>6,07; 10,25</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>5,74; 10,09</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>4,9; 8,42</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>3,02; 5,12</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>5,37; 8,18</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>4,54; 7,16</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>4,11; 6,65</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,3%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,36%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,38%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,26%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,86%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,66%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,81%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,17%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,77%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>2,76; 6,61</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>3,66; 7,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>2,23; 4,94</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>3,69; 7,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>3,35; 7,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>6,25; 11,14</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>3,29; 6,83</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>3,16; 5,58</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>3,56; 6,26</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>5,46; 8,53</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>3,17; 5,59</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>3,71; 5,94</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,0%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,45%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,07%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,26%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,11%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,79%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,08%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,29%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,57%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,62%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,06%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,79%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>3,12; 7,35</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>4,17; 9,17</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>5,02; 9,92</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>6,25; 10,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>4,13; 9,23</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>4,58; 9,28</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>3,31; 7,41</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>3,98; 6,9</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>4,19; 7,29</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>5,21; 8,29</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>4,37; 7,62</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>5,6; 8,24</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,43%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,72%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,88%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,05%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,2%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,48%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,97%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,74%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,88%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,01%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,36%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,08%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>6,37; 11,35</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>8,99; 14,96</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>7,77; 12,67</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>8,23; 12,03</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>7,03; 11,49</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>8,16; 12,73</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>6,89; 11,47</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>4,66; 8,04</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>7,3; 10,55</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>9,23; 12,82</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>7,86; 11,13</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>6,49; 9,37</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,1%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,82%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,8%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,38%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,51%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,71%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,21%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,78%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,84%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,3%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,02%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>3,48; 4,93</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>5,34; 7,05</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>4,15; 5,58</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>5,04; 6,66</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>6,44; 8,32</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>8,56; 10,48</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>6,86; 8,71</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>5,46; 7,06</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>5,19; 6,37</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>7,18; 8,56</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>5,7; 6,98</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>5,42; 6,59</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P20-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P20-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>7,16%</t>
+          <t>7,06%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>3,3%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,86</t>
+          <t>0,0; 1,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,56; 12,36</t>
+          <t>3,59; 12,1</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,94; 6,43</t>
+          <t>1,76; 5,89</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>8,26%</t>
+          <t>7,31%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>6,03%</t>
+          <t>5,62%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,49; 6,54</t>
+          <t>1,56; 6,89</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,86; 11,62</t>
+          <t>4,52; 10,32</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,4; 8,03</t>
+          <t>3,88; 7,72</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,88%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>6,51%</t>
+          <t>6,59%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>5,22%</t>
+          <t>5,29%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,31; 5,96</t>
+          <t>2,43; 6,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,9; 8,42</t>
+          <t>4,99; 8,51</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,11; 6,65</t>
+          <t>4,18; 6,8</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,38%</t>
+          <t>4,22%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4,18%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>4,77%</t>
+          <t>4,16%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,69; 7,61</t>
+          <t>1,66; 6,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,16; 5,58</t>
+          <t>2,99; 5,45</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,71; 5,94</t>
+          <t>2,47; 5,42</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>8,26%</t>
+          <t>8,3%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>5,29%</t>
+          <t>5,33%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>6,79%</t>
+          <t>6,84%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,25; 10,92</t>
+          <t>6,28; 10,96</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,98; 6,9</t>
+          <t>4,01; 6,95</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,6; 8,24</t>
+          <t>5,68; 8,33</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>8,43%</t>
+          <t>7,82%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>11,72%</t>
+          <t>9,5%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>9,88%</t>
+          <t>10,96%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>10,05%</t>
+          <t>9,57%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>9,2%</t>
+          <t>8,57%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>10,48%</t>
+          <t>9,48%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>8,97%</t>
+          <t>7,74%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>6,74%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>8,88%</t>
+          <t>8,22%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>11,01%</t>
+          <t>9,49%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>9,36%</t>
+          <t>9,25%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>8,08%</t>
+          <t>5,9%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,37; 11,35</t>
+          <t>5,09; 11,46</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,99; 14,96</t>
+          <t>6,43; 13,41</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,77; 12,67</t>
+          <t>7,75; 15,17</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>8,23; 12,03</t>
+          <t>7,23; 12,42</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,03; 11,49</t>
+          <t>5,93; 11,93</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>8,16; 12,73</t>
+          <t>6,85; 12,86</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>6,89; 11,47</t>
+          <t>5,23; 11,08</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,66; 8,04</t>
+          <t>1,31; 6,02</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>7,3; 10,55</t>
+          <t>6,44; 10,42</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>9,23; 12,82</t>
+          <t>7,48; 12,09</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>7,86; 11,13</t>
+          <t>7,13; 11,81</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>6,49; 9,37</t>
+          <t>2,98; 7,92</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>9,3%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6,1%</t>
+          <t>14,48%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,82%</t>
+          <t>8,48%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,8%</t>
+          <t>10,9%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>7,38%</t>
+          <t>9,85%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>9,51%</t>
+          <t>11,39%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>7,71%</t>
+          <t>10,14%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>6,21%</t>
+          <t>9,62%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>5,78%</t>
+          <t>9,64%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>7,84%</t>
+          <t>12,6%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>9,49%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>6,02%</t>
+          <t>10,13%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>5,73; 13,97</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>10,19; 20,33</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>5,57; 12,04</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>8,19; 14,3</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>6,84; 13,92</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>8,54; 15,49</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>6,77; 13,88</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>7,71; 11,74</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>7,28; 12,57</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>9,74; 15,7</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>7,21; 11,96</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>8,57; 11,91</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>4,13%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>6,1%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>4,82%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>5,44%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>7,38%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>9,51%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>7,71%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>5,92%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>5,78%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>7,84%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>6,3%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>5,69%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>3,48; 4,93</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>5,34; 7,05</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>4,15; 5,58</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>5,04; 6,66</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>4,33; 6,33</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>6,44; 8,32</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>8,56; 10,48</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>6,86; 8,71</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>5,46; 7,06</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>4,89; 6,75</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>5,19; 6,37</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>7,18; 8,56</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>5,7; 6,98</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>5,42; 6,59</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>4,91; 6,35</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P20-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P20-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,99; 4,05</t>
+          <t>0,98; 3,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,97; 5,22</t>
+          <t>1,92; 5,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,58; 4,87</t>
+          <t>1,53; 5,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,92</t>
+          <t>0,0; 1,9</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,21; 8,92</t>
+          <t>4,23; 8,76</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,9; 11,25</t>
+          <t>5,69; 11,18</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,96; 11,71</t>
+          <t>6,04; 11,73</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,59; 12,1</t>
+          <t>3,93; 12,71</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,78; 5,51</t>
+          <t>2,83; 5,49</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>4,27; 7,34</t>
+          <t>4,23; 7,54</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>4,15; 7,3</t>
+          <t>4,3; 7,72</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,76; 5,89</t>
+          <t>1,73; 5,73</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,08; 4,72</t>
+          <t>2,03; 4,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,03; 6,34</t>
+          <t>3,14; 6,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,17; 3,96</t>
+          <t>1,18; 3,88</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,56; 6,89</t>
+          <t>1,53; 6,84</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,56; 14,83</t>
+          <t>9,54; 14,84</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,32; 17,34</t>
+          <t>11,73; 17,28</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,33; 13,53</t>
+          <t>8,53; 13,94</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,52; 10,32</t>
+          <t>4,38; 10,29</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,81; 8,63</t>
+          <t>5,89; 8,65</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,6; 10,85</t>
+          <t>7,49; 10,88</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,18; 8,04</t>
+          <t>5,21; 8,11</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,88; 7,72</t>
+          <t>4,0; 7,77</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,73; 4,29</t>
+          <t>1,79; 4,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,77; 7,82</t>
+          <t>3,83; 7,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,16; 5,13</t>
+          <t>2,11; 5,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,43; 6,23</t>
+          <t>2,29; 6,07</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,53; 6,87</t>
+          <t>3,57; 6,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,07; 10,25</t>
+          <t>6,21; 10,38</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,74; 10,09</t>
+          <t>5,76; 10,11</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,99; 8,51</t>
+          <t>5,01; 8,73</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,02; 5,12</t>
+          <t>2,94; 5,0</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,37; 8,18</t>
+          <t>5,39; 8,21</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,54; 7,16</t>
+          <t>4,46; 7,04</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,18; 6,8</t>
+          <t>4,1; 6,52</t>
         </is>
       </c>
     </row>
@@ -1144,37 +1145,37 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,76; 6,61</t>
+          <t>2,71; 6,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,66; 7,43</t>
+          <t>3,75; 7,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,23; 4,94</t>
+          <t>2,18; 5,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,66; 6,67</t>
+          <t>1,74; 6,57</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,35; 7,23</t>
+          <t>3,47; 7,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,25; 11,14</t>
+          <t>5,96; 10,87</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,29; 6,83</t>
+          <t>3,4; 6,86</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,22 +1185,22 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,56; 6,26</t>
+          <t>3,45; 6,12</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>5,46; 8,53</t>
+          <t>5,43; 8,42</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,17; 5,59</t>
+          <t>3,15; 5,46</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,47; 5,42</t>
+          <t>2,55; 5,39</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,12; 7,35</t>
+          <t>3,22; 7,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,17; 9,17</t>
+          <t>4,4; 9,23</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,02; 9,92</t>
+          <t>4,91; 9,99</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,28; 10,96</t>
+          <t>6,12; 10,58</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,13; 9,23</t>
+          <t>4,04; 8,91</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,58; 9,28</t>
+          <t>4,61; 9,47</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,31; 7,41</t>
+          <t>3,47; 7,39</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,01; 6,95</t>
+          <t>4,03; 6,83</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,19; 7,29</t>
+          <t>4,15; 7,37</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>5,21; 8,29</t>
+          <t>5,12; 8,61</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>4,37; 7,62</t>
+          <t>4,74; 7,77</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,68; 8,33</t>
+          <t>5,64; 8,28</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,09; 11,46</t>
+          <t>5,05; 11,32</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,43; 13,41</t>
+          <t>6,52; 14,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,75; 15,17</t>
+          <t>7,74; 14,88</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,23; 12,42</t>
+          <t>7,19; 12,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>5,93; 11,93</t>
+          <t>6,21; 11,8</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>6,85; 12,86</t>
+          <t>6,72; 12,73</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>5,23; 11,08</t>
+          <t>5,28; 11,49</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,31; 6,02</t>
+          <t>1,27; 6,08</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>6,44; 10,42</t>
+          <t>6,3; 10,74</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>7,48; 12,09</t>
+          <t>7,29; 11,99</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>7,13; 11,81</t>
+          <t>7,13; 11,48</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>2,98; 7,92</t>
+          <t>2,96; 7,96</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,73; 13,97</t>
+          <t>5,88; 13,82</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>10,19; 20,33</t>
+          <t>10,22; 20,25</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,57; 12,04</t>
+          <t>5,55; 12,05</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>8,19; 14,3</t>
+          <t>8,22; 14,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,84; 13,92</t>
+          <t>6,97; 13,95</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,54; 15,49</t>
+          <t>8,57; 15,29</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,77; 13,88</t>
+          <t>7,1; 14,35</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>7,71; 11,74</t>
+          <t>7,7; 11,94</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>7,28; 12,57</t>
+          <t>7,22; 12,38</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>9,74; 15,7</t>
+          <t>10,22; 15,59</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>7,21; 11,96</t>
+          <t>7,06; 12,17</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>8,57; 11,91</t>
+          <t>8,4; 11,92</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3,48; 4,93</t>
+          <t>3,49; 4,92</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>5,34; 7,05</t>
+          <t>5,29; 7,02</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4,15; 5,58</t>
+          <t>4,08; 5,6</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,33; 6,33</t>
+          <t>4,3; 6,34</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>6,44; 8,32</t>
+          <t>6,57; 8,44</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>8,56; 10,48</t>
+          <t>8,54; 10,53</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>6,86; 8,71</t>
+          <t>6,82; 8,65</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>4,89; 6,75</t>
+          <t>4,86; 6,82</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>5,19; 6,37</t>
+          <t>5,26; 6,34</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>7,18; 8,56</t>
+          <t>7,18; 8,48</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>5,7; 6,98</t>
+          <t>5,72; 6,89</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>4,91; 6,35</t>
+          <t>4,9; 6,32</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha estado ingresada en un hospital en los últimos 12 meses</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>10121</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>14809</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>12338</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>1454</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>28349</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>35207</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>33921</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>22114</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>38471</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>50016</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>46259</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>23568</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>4844; 18441</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>8673; 24157</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>6431; 21254</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 7592</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>19777; 40955</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>24499; 48119</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>23915; 46404</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>12301; 39813</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>27162; 52775</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>37355; 66544</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>35091; 62899</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>12336; 40842</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>23371</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>30673</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>13294</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>15123</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>74288</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>87029</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>61671</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>37393</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>97659</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>117702</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>74965</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>52515</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>14905; 34366</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>21557; 43762</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>6969; 22895</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>6494; 28983</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>59693; 92829</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>71611; 105450</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>48044; 78544</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>22429; 52650</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>80176; 117679</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>97203; 141145</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>60111; 93595</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>37368; 72625</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>17864</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>37203</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>23221</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>21347</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>33877</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>56833</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>51147</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>35763</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>51741</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>94036</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>74368</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>57110</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>11418; 28970</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>26148; 53336</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>14124; 35045</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>12281; 32579</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>24646; 47896</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>44150; 73778</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>38099; 66855</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>27170; 47380</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>39058; 66399</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>75032; 114278</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>59280; 93631</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>44187; 70345</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>22346</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>32953</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>22412</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>37480</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>25856</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>50884</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>31565</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>29168</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>48202</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>83838</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>53977</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>66648</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>14082; 34446</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>23068; 45920</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>14079; 33442</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>15421; 58344</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>17875; 37392</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>36728; 66995</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>22097; 44542</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>21285; 38833</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>35653; 63311</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>66784; 103617</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>40829; 70670</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>40854; 86203</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>19341</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>27680</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>33788</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>46592</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>24672</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>30396</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>25241</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>29085</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>44013</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>58076</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>59029</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>75677</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>12445; 29029</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>18884; 39624</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>23482; 47748</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>34340; 59368</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>16324; 35975</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>20638; 42407</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>17243; 36693</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>21978; 37255</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>32775; 58309</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>44871; 75494</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>46188; 75710</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>62404; 91683</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>22870</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>29420</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>36641</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>35239</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>29399</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>33575</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>29229</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>22335</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>52269</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>62995</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>65870</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>57575</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>14765; 33112</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>20211; 43372</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>25887; 49759</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>26461; 44188</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>21312; 40455</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>23794; 45078</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>19955; 43399</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>7741; 36991</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>40019; 68228</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>48366; 79604</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>50756; 81732</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>28889; 77774</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>19512</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>36177</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>21787</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>30823</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>32900</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>44308</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>40565</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>40984</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>52412</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>80485</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>62352</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>71808</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>12344; 29016</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>25526; 50605</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>14251; 30976</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>23238; 39596</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>23272; 46579</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>33319; 59490</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>28402; 57416</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>32776; 50861</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>39286; 67313</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>65286; 99604</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>46416; 79963</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>59515; 84479</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>314</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>344</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>378</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>507</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>406</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>572</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>135426</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>208914</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>163481</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>188058</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>249341</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>338233</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>273339</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>216843</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>384767</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>547147</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>436820</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>404902</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>114463; 161027</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>181142; 240563</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>138465; 190218</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>148604; 219461</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>221883; 285315</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>304031; 374818</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>241903; 306475</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>177874; 249496</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>350217; 422044</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>501689; 591963</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>396890; 477952</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>348675; 450091</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>